--- a/biology/Zoologie/Didangia/Didangia.xlsx
+++ b/biology/Zoologie/Didangia/Didangia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didangiidae
 Didangia est un genre de vers plats, le seul genre de la famille des Didangiidae. Cette famille appartient au sous-ordre des Acotylea de l'ordre des Polycladia.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,11 +552,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les noms valides complets (avec auteur) de ces taxons sont :
-pour la famille : Didangiidae Faubel, 1983[2]
-pour le genre : Didangia Faubel, 1983[2]</t>
+pour la famille : Didangiidae Faubel, 1983
+pour le genre : Didangia Faubel, 1983</t>
         </is>
       </c>
     </row>
@@ -570,9 +586,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la base de données World Register of Marine Species                               (11 novembre 2023)[2], le genre Didangia contient les espèces suivantes :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (11 novembre 2023), le genre Didangia contient les espèces suivantes :
 Didangia carneyi Quiroga, Bolanos &amp; Litvaitis, 2008
 Didangia mactanensis Faubel, 1983</t>
         </is>
